--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H2">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I2">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J2">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.13335919787839</v>
+        <v>0.2537453333333333</v>
       </c>
       <c r="N2">
-        <v>1.13335919787839</v>
+        <v>0.761236</v>
       </c>
       <c r="O2">
-        <v>0.8316643769554758</v>
+        <v>0.1395119621451497</v>
       </c>
       <c r="P2">
-        <v>0.8316643769554758</v>
+        <v>0.1395119621451497</v>
       </c>
       <c r="Q2">
-        <v>98.10611641466048</v>
+        <v>28.16702965363467</v>
       </c>
       <c r="R2">
-        <v>98.10611641466048</v>
+        <v>253.503266882712</v>
       </c>
       <c r="S2">
-        <v>0.05151303352183744</v>
+        <v>0.01062757073904769</v>
       </c>
       <c r="T2">
-        <v>0.05151303352183744</v>
+        <v>0.01062757073904769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H3">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I3">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J3">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2294011045736</v>
+        <v>1.194006666666667</v>
       </c>
       <c r="N3">
-        <v>0.2294011045736</v>
+        <v>3.58202</v>
       </c>
       <c r="O3">
-        <v>0.1683356230445242</v>
+        <v>0.6564779367281227</v>
       </c>
       <c r="P3">
-        <v>0.1683356230445242</v>
+        <v>0.6564779367281226</v>
       </c>
       <c r="Q3">
-        <v>19.85747458800275</v>
+        <v>132.5408461500933</v>
       </c>
       <c r="R3">
-        <v>19.85747458800275</v>
+        <v>1192.86761535084</v>
       </c>
       <c r="S3">
-        <v>0.01042665627275774</v>
+        <v>0.05000836920309026</v>
       </c>
       <c r="T3">
-        <v>0.01042665627275774</v>
+        <v>0.05000836920309024</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>927.732656174847</v>
+        <v>111.005114</v>
       </c>
       <c r="H4">
-        <v>927.732656174847</v>
+        <v>333.015342</v>
       </c>
       <c r="I4">
-        <v>0.663839911046327</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J4">
-        <v>0.663839911046327</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.13335919787839</v>
+        <v>0.1154886666666667</v>
       </c>
       <c r="N4">
-        <v>1.13335919787839</v>
+        <v>0.346466</v>
       </c>
       <c r="O4">
-        <v>0.8316643769554758</v>
+        <v>0.06349693324616998</v>
       </c>
       <c r="P4">
-        <v>0.8316643769554758</v>
+        <v>0.06349693324616996</v>
       </c>
       <c r="Q4">
-        <v>1051.454339047913</v>
+        <v>12.81983260904133</v>
       </c>
       <c r="R4">
-        <v>1051.454339047913</v>
+        <v>115.378493481372</v>
       </c>
       <c r="S4">
-        <v>0.552092006018522</v>
+        <v>0.004836991318953516</v>
       </c>
       <c r="T4">
-        <v>0.552092006018522</v>
+        <v>0.004836991318953513</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>927.732656174847</v>
+        <v>111.005114</v>
       </c>
       <c r="H5">
-        <v>927.732656174847</v>
+        <v>333.015342</v>
       </c>
       <c r="I5">
-        <v>0.663839911046327</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J5">
-        <v>0.663839911046327</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2294011045736</v>
+        <v>0.2555663333333333</v>
       </c>
       <c r="N5">
-        <v>0.2294011045736</v>
+        <v>0.766699</v>
       </c>
       <c r="O5">
-        <v>0.1683356230445242</v>
+        <v>0.1405131678805576</v>
       </c>
       <c r="P5">
-        <v>0.1683356230445242</v>
+        <v>0.1405131678805576</v>
       </c>
       <c r="Q5">
-        <v>212.8228960755098</v>
+        <v>28.36916996622867</v>
       </c>
       <c r="R5">
-        <v>212.8228960755098</v>
+        <v>255.322529696058</v>
       </c>
       <c r="S5">
-        <v>0.111747905027805</v>
+        <v>0.01070383935869708</v>
       </c>
       <c r="T5">
-        <v>0.111747905027805</v>
+        <v>0.01070383935869707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.5315113984222</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H6">
-        <v>69.5315113984222</v>
+        <v>2790.450928</v>
       </c>
       <c r="I6">
-        <v>0.04975333360793763</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J6">
-        <v>0.04975333360793763</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.13335919787839</v>
+        <v>0.2537453333333333</v>
       </c>
       <c r="N6">
-        <v>1.13335919787839</v>
+        <v>0.761236</v>
       </c>
       <c r="O6">
-        <v>0.8316643769554758</v>
+        <v>0.1395119621451497</v>
       </c>
       <c r="P6">
-        <v>0.8316643769554758</v>
+        <v>0.1395119621451497</v>
       </c>
       <c r="Q6">
-        <v>78.8041779857879</v>
+        <v>236.0213002918897</v>
       </c>
       <c r="R6">
-        <v>78.8041779857879</v>
+        <v>2124.191702627008</v>
       </c>
       <c r="S6">
-        <v>0.04137807519650339</v>
+        <v>0.08905209727893341</v>
       </c>
       <c r="T6">
-        <v>0.04137807519650339</v>
+        <v>0.08905209727893337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>69.5315113984222</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H7">
-        <v>69.5315113984222</v>
+        <v>2790.450928</v>
       </c>
       <c r="I7">
-        <v>0.04975333360793763</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J7">
-        <v>0.04975333360793763</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2294011045736</v>
+        <v>1.194006666666667</v>
       </c>
       <c r="N7">
-        <v>0.2294011045736</v>
+        <v>3.58202</v>
       </c>
       <c r="O7">
-        <v>0.1683356230445242</v>
+        <v>0.6564779367281227</v>
       </c>
       <c r="P7">
-        <v>0.1683356230445242</v>
+        <v>0.6564779367281226</v>
       </c>
       <c r="Q7">
-        <v>15.95060551746991</v>
+        <v>1110.605670346062</v>
       </c>
       <c r="R7">
-        <v>15.95060551746991</v>
+        <v>9995.451033114559</v>
       </c>
       <c r="S7">
-        <v>0.008375258411434248</v>
+        <v>0.4190374515854282</v>
       </c>
       <c r="T7">
-        <v>0.008375258411434248</v>
+        <v>0.419037451585428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>313.698262912969</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H8">
-        <v>313.698262912969</v>
+        <v>2790.450928</v>
       </c>
       <c r="I8">
-        <v>0.2244670655511401</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J8">
-        <v>0.2244670655511401</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.13335919787839</v>
+        <v>0.1154886666666667</v>
       </c>
       <c r="N8">
-        <v>1.13335919787839</v>
+        <v>0.346466</v>
       </c>
       <c r="O8">
-        <v>0.8316643769554758</v>
+        <v>0.06349693324616998</v>
       </c>
       <c r="P8">
-        <v>0.8316643769554758</v>
+        <v>0.06349693324616996</v>
       </c>
       <c r="Q8">
-        <v>355.5328116308868</v>
+        <v>107.4218190244942</v>
       </c>
       <c r="R8">
-        <v>355.5328116308868</v>
+        <v>966.7963712204479</v>
       </c>
       <c r="S8">
-        <v>0.1866812622186129</v>
+        <v>0.04053082609840174</v>
       </c>
       <c r="T8">
-        <v>0.1866812622186129</v>
+        <v>0.04053082609840172</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>313.698262912969</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H9">
-        <v>313.698262912969</v>
+        <v>2790.450928</v>
       </c>
       <c r="I9">
-        <v>0.2244670655511401</v>
+        <v>0.6383115534299679</v>
       </c>
       <c r="J9">
-        <v>0.2244670655511401</v>
+        <v>0.6383115534299678</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2294011045736</v>
+        <v>0.2555663333333333</v>
       </c>
       <c r="N9">
-        <v>0.2294011045736</v>
+        <v>0.766699</v>
       </c>
       <c r="O9">
-        <v>0.1683356230445242</v>
+        <v>0.1405131678805576</v>
       </c>
       <c r="P9">
-        <v>0.1683356230445242</v>
+        <v>0.1405131678805576</v>
       </c>
       <c r="Q9">
-        <v>71.96272801505468</v>
+        <v>237.7151040051858</v>
       </c>
       <c r="R9">
-        <v>71.96272801505468</v>
+        <v>2139.435936046672</v>
       </c>
       <c r="S9">
-        <v>0.03778580333252723</v>
+        <v>0.0896911784672046</v>
       </c>
       <c r="T9">
-        <v>0.03778580333252723</v>
+        <v>0.08969117846720458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>72.47344466666667</v>
+      </c>
+      <c r="H10">
+        <v>217.420334</v>
+      </c>
+      <c r="I10">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="J10">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2537453333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.761236</v>
+      </c>
+      <c r="O10">
+        <v>0.1395119621451497</v>
+      </c>
+      <c r="P10">
+        <v>0.1395119621451497</v>
+      </c>
+      <c r="Q10">
+        <v>18.38979837475822</v>
+      </c>
+      <c r="R10">
+        <v>165.508185372824</v>
+      </c>
+      <c r="S10">
+        <v>0.00693856915364691</v>
+      </c>
+      <c r="T10">
+        <v>0.006938569153646908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>72.47344466666667</v>
+      </c>
+      <c r="H11">
+        <v>217.420334</v>
+      </c>
+      <c r="I11">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="J11">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.194006666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.58202</v>
+      </c>
+      <c r="O11">
+        <v>0.6564779367281227</v>
+      </c>
+      <c r="P11">
+        <v>0.6564779367281226</v>
+      </c>
+      <c r="Q11">
+        <v>86.53377608829777</v>
+      </c>
+      <c r="R11">
+        <v>778.80398479468</v>
+      </c>
+      <c r="S11">
+        <v>0.03264965592765752</v>
+      </c>
+      <c r="T11">
+        <v>0.03264965592765751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>72.47344466666667</v>
+      </c>
+      <c r="H12">
+        <v>217.420334</v>
+      </c>
+      <c r="I12">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="J12">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1154886666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.346466</v>
+      </c>
+      <c r="O12">
+        <v>0.06349693324616998</v>
+      </c>
+      <c r="P12">
+        <v>0.06349693324616996</v>
+      </c>
+      <c r="Q12">
+        <v>8.369861493293778</v>
+      </c>
+      <c r="R12">
+        <v>75.328753439644</v>
+      </c>
+      <c r="S12">
+        <v>0.00315799344800749</v>
+      </c>
+      <c r="T12">
+        <v>0.00315799344800749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>72.47344466666667</v>
+      </c>
+      <c r="H13">
+        <v>217.420334</v>
+      </c>
+      <c r="I13">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="J13">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2555663333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.766699</v>
+      </c>
+      <c r="O13">
+        <v>0.1405131678805576</v>
+      </c>
+      <c r="P13">
+        <v>0.1405131678805576</v>
+      </c>
+      <c r="Q13">
+        <v>18.52177251749622</v>
+      </c>
+      <c r="R13">
+        <v>166.695952657466</v>
+      </c>
+      <c r="S13">
+        <v>0.00698836370262564</v>
+      </c>
+      <c r="T13">
+        <v>0.006988363702625639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H14">
+        <v>1030.72615</v>
+      </c>
+      <c r="I14">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J14">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.2537453333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.761236</v>
+      </c>
+      <c r="O14">
+        <v>0.1395119621451497</v>
+      </c>
+      <c r="P14">
+        <v>0.1395119621451497</v>
+      </c>
+      <c r="Q14">
+        <v>87.18065016904444</v>
+      </c>
+      <c r="R14">
+        <v>784.6258515214</v>
+      </c>
+      <c r="S14">
+        <v>0.03289372497352174</v>
+      </c>
+      <c r="T14">
+        <v>0.03289372497352173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H15">
+        <v>1030.72615</v>
+      </c>
+      <c r="I15">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J15">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.194006666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.58202</v>
+      </c>
+      <c r="O15">
+        <v>0.6564779367281227</v>
+      </c>
+      <c r="P15">
+        <v>0.6564779367281226</v>
+      </c>
+      <c r="Q15">
+        <v>410.2312982025555</v>
+      </c>
+      <c r="R15">
+        <v>3692.081683823</v>
+      </c>
+      <c r="S15">
+        <v>0.1547824600119468</v>
+      </c>
+      <c r="T15">
+        <v>0.1547824600119468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H16">
+        <v>1030.72615</v>
+      </c>
+      <c r="I16">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J16">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1154886666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.346466</v>
+      </c>
+      <c r="O16">
+        <v>0.06349693324616998</v>
+      </c>
+      <c r="P16">
+        <v>0.06349693324616996</v>
+      </c>
+      <c r="Q16">
+        <v>39.67906292065555</v>
+      </c>
+      <c r="R16">
+        <v>357.1115662859</v>
+      </c>
+      <c r="S16">
+        <v>0.01497112238080724</v>
+      </c>
+      <c r="T16">
+        <v>0.01497112238080724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H17">
+        <v>1030.72615</v>
+      </c>
+      <c r="I17">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J17">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2555663333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.766699</v>
+      </c>
+      <c r="O17">
+        <v>0.1405131678805576</v>
+      </c>
+      <c r="P17">
+        <v>0.1405131678805576</v>
+      </c>
+      <c r="Q17">
+        <v>87.80630094209444</v>
+      </c>
+      <c r="R17">
+        <v>790.25670847885</v>
+      </c>
+      <c r="S17">
+        <v>0.03312978635203031</v>
+      </c>
+      <c r="T17">
+        <v>0.0331297863520303</v>
       </c>
     </row>
   </sheetData>
